--- a/Docs/Miscelanous/SCAPI_Decisions.xlsx
+++ b/Docs/Miscelanous/SCAPI_Decisions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>generate key</t>
+  </si>
+  <si>
+    <t>key generation is not rely on specific instance, so we wanted to change this function to be static.</t>
+  </si>
+  <si>
+    <t>1. separate the key generation from the algorithm and put it in a "keyGenerator" class that gets the algorithm name and generates the key.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But static functions can not be in an interface.</t>
+  </si>
+  <si>
+    <t>2. keep the current state, so there is a need to create "dummy" object in order to generate the key.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this way key generation can be done without a specific object and still, new algorithms will have to implement the generateKey function </t>
+  </si>
+  <si>
+    <t>3. keep the interface as is, and each concrete class adds a static function "keyGen" that will generates keys staticly.</t>
+  </si>
+  <si>
+    <t>the third.</t>
+  </si>
+  <si>
+    <t>keep the interface as is, and each concrete class adds a static function "keyGen" that will generates keys staticly.</t>
   </si>
 </sst>
 </file>
@@ -77,9 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,16 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="89.7109375" customWidth="1"/>
+    <col min="4" max="4" width="124.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -413,11 +446,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40948</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/Miscelanous/SCAPI_Decisions.xlsx
+++ b/Docs/Miscelanous/SCAPI_Decisions.xlsx
@@ -39,28 +39,28 @@
     <t>generate key</t>
   </si>
   <si>
-    <t>key generation is not rely on specific instance, so we wanted to change this function to be static.</t>
-  </si>
-  <si>
     <t>1. separate the key generation from the algorithm and put it in a "keyGenerator" class that gets the algorithm name and generates the key.</t>
   </si>
   <si>
-    <t xml:space="preserve"> But static functions can not be in an interface.</t>
-  </si>
-  <si>
     <t>2. keep the current state, so there is a need to create "dummy" object in order to generate the key.</t>
   </si>
   <si>
     <t xml:space="preserve">this way key generation can be done without a specific object and still, new algorithms will have to implement the generateKey function </t>
   </si>
   <si>
-    <t>3. keep the interface as is, and each concrete class adds a static function "keyGen" that will generates keys staticly.</t>
-  </si>
-  <si>
     <t>the third.</t>
   </si>
   <si>
-    <t>keep the interface as is, and each concrete class adds a static function "keyGen" that will generates keys staticly.</t>
+    <t>Key generation should not rely on specific instance, so we wanted to change this function to be static.</t>
+  </si>
+  <si>
+    <t>But static functions can not be in an interface.</t>
+  </si>
+  <si>
+    <t>keep the interface as is, and each concrete class adds a static function "keyGen" that will generate keys statically.</t>
+  </si>
+  <si>
+    <t>3. keep the interface as is, and each concrete class adds a static function "keyGen" that will generate keys statically.</t>
   </si>
 </sst>
 </file>
@@ -412,15 +412,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="89.7109375" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" customWidth="1"/>
     <col min="4" max="4" width="124.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" customWidth="1"/>
@@ -454,34 +454,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
